--- a/Table-of-Real-World-Speeds.xlsx
+++ b/Table-of-Real-World-Speeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CEIS-295\CEIS295-Week2\Week 2 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1CA5C5-E530-4BDD-A62B-44159DCDA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A4C2AD-1696-4B14-B0D0-2190F65A5544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="1425" windowWidth="21045" windowHeight="11295" xr2:uid="{6445DB60-6F86-45C9-B724-D766F58CE32D}"/>
+    <workbookView xWindow="28380" yWindow="1410" windowWidth="15855" windowHeight="10410" xr2:uid="{6445DB60-6F86-45C9-B724-D766F58CE32D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Table of Real-World Speeds</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Add some records, display random records, remove random records</t>
+  </si>
+  <si>
+    <t>LINKED LISTS</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -131,55 +140,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -247,56 +207,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,257 +594,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB1544-19F1-4E22-9949-635942135503}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="M5" s="13"/>
+      <c r="N5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7">
         <v>4.6319999999999998E-3</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="M7" s="7"/>
+      <c r="N7" s="11">
+        <v>2.091E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7">
         <v>2.6239710000000001</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
         <v>2.8312040000000001</v>
       </c>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="M8" s="7"/>
+      <c r="N8" s="11">
+        <v>1.5349999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7">
         <v>0.67555200000000004</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
         <v>1.2777999999999999E-2</v>
       </c>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="M10" s="7"/>
+      <c r="N10" s="11">
+        <v>0.48521799999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="17">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5">
         <v>1.6777930000000001</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17">
+      <c r="K12" s="6"/>
+      <c r="L12" s="5">
         <v>1.4218580000000001</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="11">
+        <v>0.94074800000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:M4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
